--- a/Opollo/src/test/data/pms/virtual_bundle_import_create_template_v5.xlsx
+++ b/Opollo/src/test/data/pms/virtual_bundle_import_create_template_v5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="612">
   <si>
     <t>Tên Quốc gia/ Vùng lãnh thổ</t>
   </si>
@@ -2409,6 +2409,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>LKIUXHT0ML</t>
   </si>
 </sst>
 </file>
@@ -3125,40 +3128,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="19.14785714285714" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="44" width="22.576428571428572" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="19.862142857142857" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.862142857142857" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="44" width="13.576428571428572" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="11.862142857142858" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="44" width="15.862142857142858" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="10" width="17.862142857142857" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="10" width="19.14785714285714" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="44" width="23.290714285714284" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="10" width="18.576428571428572" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="44" width="17.14785714285714" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="44" width="13.576428571428572" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="10" width="11.862142857142858" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="44" width="13.576428571428572" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="10" width="11.576428571428572" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="10" width="9.719285714285713" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="10" width="21.719285714285714" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="10" width="12.147857142857141" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="10" width="11.290714285714287" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="10" width="18.14785714285714" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="10" width="18.14785714285714" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="10" width="24.14785714285714" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="10" width="24.14785714285714" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" hidden="true" style="44" width="12.43357142857143" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" hidden="true" style="44" width="12.43357142857143" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="44" width="24.576428571428572" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="44" width="16.719285714285714" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="44" width="16.719285714285714" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="44" width="14.576428571428572" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="44" width="21.290714285714284" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="19.14785714285714" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="44" width="22.576428571428572" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="19.862142857142857" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.862142857142857" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="44" width="13.576428571428572" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="11.862142857142858" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="44" width="15.862142857142858" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="10" width="17.862142857142857" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="10" width="19.14785714285714" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="44" width="23.290714285714284" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="10" width="18.576428571428572" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="44" width="17.14785714285714" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="44" width="13.576428571428572" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="10" width="11.862142857142858" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="44" width="13.576428571428572" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="10" width="11.576428571428572" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="10" width="9.719285714285713" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="10" width="21.719285714285714" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="10" width="12.147857142857141" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="10" width="11.290714285714287" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="10" width="18.14785714285714" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="10" width="18.14785714285714" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="10" width="24.14785714285714" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="10" width="24.14785714285714" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" hidden="true" style="44" width="12.43357142857143" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" hidden="true" style="44" width="12.43357142857143" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="44" width="24.576428571428572" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="44" width="16.719285714285714" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="44" width="16.719285714285714" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="44" width="14.576428571428572" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="44" width="21.290714285714284" collapsed="true"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
@@ -3453,7 +3456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="14" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>598</v>
@@ -3465,7 +3468,7 @@
         <v>598</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="42" t="s">
@@ -12264,13 +12267,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="14.576428571428572" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="14.576428571428572" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="15.290714285714287" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="14.576428571428572" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="18.576428571428572" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="27.290714285714284" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="22.576428571428572" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="14.576428571428572" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="14.576428571428572" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="15.290714285714287" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="14.576428571428572" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="18.576428571428572" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="27.290714285714284" collapsed="true"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75">
@@ -12441,8 +12444,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="50.57642857142857" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="10.576428571428572" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="50.57642857142857" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="10.576428571428572" collapsed="true"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
